--- a/biology/Zoologie/Otto_Fuhrmann/Otto_Fuhrmann.xlsx
+++ b/biology/Zoologie/Otto_Fuhrmann/Otto_Fuhrmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Fuhrmann, né le 1er avril 1871 à Bâle et décédé le 27 janvier 1945 était un parasitologue Suisse spécialisé dans le domaine de l'helminthologie.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a étudié à l'Université de Bâle comme élève de Ludwig Ruetimeyer et Friedrich Zschokke. Il a ensuite poursuivi ses études à Genève, où il a été persuadé par le zoologiste Karl Vogt de concentrer ses études sur les vers plats parasites. En 1894, il a obtenu son doctorat avec une thèse intitulée "Die Turbellarien der Umgebung von Basel". Après un passage en tant qu'assistant à l'Université de Genève, il a rejoint l'Université de Neuchâtel, où il a enseigné l'anatomie comparée et la zoologie de 1895 à 1941[1].
-Il est l'auteur de l'introduction d'un nouveau schéma de classification pour des cyclophyllidea (de l'ordre de ténias), dans lequel la l'ordre a été divisée en dix familles avec huit sous-familles — de ses 66 genres, 20 étaient nouvelles pour la science. Le genre herpétologique  Cryptobatrachus fuhrmanni (la "grenouille sac" à dos de Fuhrmann) a été nommé en son honneur par Mario Giacinto Peracca[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a étudié à l'Université de Bâle comme élève de Ludwig Ruetimeyer et Friedrich Zschokke. Il a ensuite poursuivi ses études à Genève, où il a été persuadé par le zoologiste Karl Vogt de concentrer ses études sur les vers plats parasites. En 1894, il a obtenu son doctorat avec une thèse intitulée "Die Turbellarien der Umgebung von Basel". Après un passage en tant qu'assistant à l'Université de Genève, il a rejoint l'Université de Neuchâtel, où il a enseigné l'anatomie comparée et la zoologie de 1895 à 1941.
+Il est l'auteur de l'introduction d'un nouveau schéma de classification pour des cyclophyllidea (de l'ordre de ténias), dans lequel la l'ordre a été divisée en dix familles avec huit sous-familles — de ses 66 genres, 20 étaient nouvelles pour la science. Le genre herpétologique  Cryptobatrachus fuhrmanni (la "grenouille sac" à dos de Fuhrmann) a été nommé en son honneur par Mario Giacinto Peracca.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die cestoden der vögel, 1909 – Cestodes aviaires.
-Voyage d'exploration scientifique en Colombie, 1914 (avec Eugène Mayor)[3].
+Voyage d'exploration scientifique en Colombie, 1914 (avec Eugène Mayor).
 Cestodes parasites d'oiseaux de la Nouvelle-Calédonie et des Iles Loyauté, 1918.
 Cestodes, 1926
 Brasilianische Cestoden aus Reptilien und Vögeln, 1927 – Cestodes brésiliens parasites des reptiles et des oiseaux.
-Les ténias des oiseaux, avec 147 figures dans le texte, 1932[4].</t>
+Les ténias des oiseaux, avec 147 figures dans le texte, 1932.</t>
         </is>
       </c>
     </row>
